--- a/FH/Python/DAQ/UE06/bestsellerdata/ABA Bestsellers 02-07-18.xlsx
+++ b/FH/Python/DAQ/UE06/bestsellerdata/ABA Bestsellers 02-07-18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmcedward\Desktop\MAESTRO\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Python\DAQ\UE06\bestsellerdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544D904-6C72-4041-A2E0-B62706F7BB21}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4592B6EA-3C02-4EFD-9C27-CE6CACC8B0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="4740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Early &amp; Middle" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <sheet name="Trade Paperback Nonfiction" sheetId="6" r:id="rId6"/>
     <sheet name="Young Adult" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -859,7 +870,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1016,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
